--- a/data/mobility/raw_data/Güterverkehr der Binnenschifffahrt_monatlich.xlsx
+++ b/data/mobility/raw_data/Güterverkehr der Binnenschifffahrt_monatlich.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph\Desktop\3. Semester\Applied Machine Intelligence\Semester Project\Data_preprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph\Desktop\3. Semester\Applied Machine Intelligence\Semester Project\Data_preprocessing\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF4A64C-4C6D-4DFF-95E0-AB14D96C883E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F11502-7F62-4AAE-81A2-50D839A1ED61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392"/>
   </bookViews>
   <sheets>
-    <sheet name="Güterverkehr der Binnenschifffa" sheetId="1" r:id="rId1"/>
+    <sheet name="46321-0002" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="32">
   <si>
     <t>GENESIS-Tabelle: 46321-0002</t>
   </si>
@@ -115,7 +115,7 @@
     <t>© Statistisches Bundesamt (Destatis), 2020</t>
   </si>
   <si>
-    <t>Stand: 19.06.2020 / 12:28:43</t>
+    <t>Stand: 06.07.2020 / 16:16:39</t>
   </si>
 </sst>
 </file>
@@ -12267,19 +12267,19 @@
         <v>16</v>
       </c>
       <c r="C359">
-        <v>4115035</v>
+        <v>4178767</v>
       </c>
       <c r="D359">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E359">
-        <v>4250392</v>
+        <v>4247850</v>
       </c>
       <c r="F359">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G359">
-        <v>6484136</v>
+        <v>6485123</v>
       </c>
       <c r="H359">
         <v>1382</v>
@@ -12298,29 +12298,29 @@
       <c r="B360" t="s">
         <v>17</v>
       </c>
-      <c r="C360" t="s">
-        <v>27</v>
-      </c>
-      <c r="D360" t="s">
-        <v>27</v>
-      </c>
-      <c r="E360" t="s">
-        <v>27</v>
-      </c>
-      <c r="F360" t="s">
-        <v>27</v>
-      </c>
-      <c r="G360" t="s">
-        <v>27</v>
-      </c>
-      <c r="H360" t="s">
-        <v>27</v>
-      </c>
-      <c r="I360" t="s">
-        <v>27</v>
-      </c>
-      <c r="J360" t="s">
-        <v>27</v>
+      <c r="C360">
+        <v>4782968</v>
+      </c>
+      <c r="D360">
+        <v>948</v>
+      </c>
+      <c r="E360">
+        <v>4163070</v>
+      </c>
+      <c r="F360">
+        <v>1118</v>
+      </c>
+      <c r="G360">
+        <v>7354357</v>
+      </c>
+      <c r="H360">
+        <v>1669</v>
+      </c>
+      <c r="I360">
+        <v>1059068</v>
+      </c>
+      <c r="J360">
+        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.55000000000000004">
